--- a/data/trans_orig/P6705-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FFC5A2B-787B-45AF-9AD6-F5E9D86D762C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5355611D-0C25-4069-9E56-9C45AF546D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08C58594-9540-497F-AD85-D19481DE00DA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F167D48-B185-49E0-8861-ADAF124CD7CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="785">
   <si>
     <t>Población según si su trabajo es desgastador emocionalmente en 2012 (Tasa respuesta: 33,81%)</t>
   </si>
@@ -76,2359 +76,2323 @@
     <t>25,13%</t>
   </si>
   <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>17,25%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>6,77%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
 </sst>
 </file>
@@ -2840,7 +2804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C3740F-C36A-4BBC-9619-5B27FA813B32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228A9F1C-4EFC-4D73-8ECA-4004F98B27EF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3479,10 +3443,10 @@
         <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -3491,13 +3455,13 @@
         <v>47703</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>118</v>
@@ -3506,13 +3470,13 @@
         <v>127987</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3532,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3580,13 +3544,13 @@
         <v>71279</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -3595,13 +3559,13 @@
         <v>56594</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>122</v>
@@ -3610,13 +3574,13 @@
         <v>127873</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3595,13 @@
         <v>64314</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -3646,13 +3610,13 @@
         <v>53514</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -3661,13 +3625,13 @@
         <v>117828</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3646,13 @@
         <v>138526</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -3697,13 +3661,13 @@
         <v>73611</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>206</v>
@@ -3712,13 +3676,13 @@
         <v>212137</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,10 +3700,10 @@
         <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -3748,13 +3712,13 @@
         <v>43926</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
@@ -3763,13 +3727,13 @@
         <v>134572</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3748,13 @@
         <v>57625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
@@ -3799,13 +3763,13 @@
         <v>56191</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -3814,13 +3778,13 @@
         <v>113815</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,7 +3840,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3888,13 +3852,13 @@
         <v>75993</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -3903,10 +3867,10 @@
         <v>56908</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>155</v>
@@ -3939,13 +3903,13 @@
         <v>59098</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -3954,13 +3918,13 @@
         <v>33756</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>83</v>
@@ -3969,13 +3933,13 @@
         <v>92854</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4056,13 @@
         <v>53423</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>34</v>
@@ -4107,13 +4071,13 @@
         <v>39614</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>82</v>
@@ -4122,10 +4086,10 @@
         <v>93037</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>191</v>
@@ -4202,7 +4166,7 @@
         <v>194</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -4211,13 +4175,13 @@
         <v>16672</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -4226,13 +4190,13 @@
         <v>47925</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4211,13 @@
         <v>24352</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -4262,13 +4226,13 @@
         <v>11300</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -4277,13 +4241,13 @@
         <v>35652</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4262,13 @@
         <v>41676</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -4313,13 +4277,13 @@
         <v>19827</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>55</v>
@@ -4328,13 +4292,13 @@
         <v>61502</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4313,13 @@
         <v>32208</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -4364,13 +4328,13 @@
         <v>12596</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -4379,13 +4343,13 @@
         <v>44804</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4364,13 @@
         <v>27862</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4415,13 +4379,13 @@
         <v>9296</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -4430,13 +4394,13 @@
         <v>37158</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,7 +4456,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4504,13 +4468,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -4519,13 +4483,13 @@
         <v>1871</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4534,13 +4498,13 @@
         <v>1871</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4519,13 @@
         <v>1000</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4570,13 +4534,13 @@
         <v>967</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -4585,13 +4549,13 @@
         <v>1966</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4570,13 @@
         <v>1017</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4621,13 +4585,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -4636,13 +4600,13 @@
         <v>1017</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4672,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -4687,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4672,13 @@
         <v>1000</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4723,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -4738,13 +4702,13 @@
         <v>1000</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4776,13 @@
         <v>276495</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H40" s="7">
         <v>192</v>
@@ -4827,13 +4791,13 @@
         <v>209936</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="M40" s="7">
         <v>451</v>
@@ -4842,13 +4806,13 @@
         <v>486430</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>103</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4827,13 @@
         <v>216585</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H41" s="7">
         <v>147</v>
@@ -4878,13 +4842,13 @@
         <v>155185</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M41" s="7">
         <v>355</v>
@@ -4893,13 +4857,13 @@
         <v>371769</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4878,13 @@
         <v>409949</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H42" s="7">
         <v>224</v>
@@ -4929,13 +4893,13 @@
         <v>241701</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M42" s="7">
         <v>607</v>
@@ -4944,13 +4908,13 @@
         <v>651649</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4929,13 @@
         <v>276768</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H43" s="7">
         <v>154</v>
@@ -4980,13 +4944,13 @@
         <v>169742</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M43" s="7">
         <v>410</v>
@@ -4995,13 +4959,13 @@
         <v>446510</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>68</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4980,13 @@
         <v>233181</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H44" s="7">
         <v>157</v>
@@ -5031,13 +4995,13 @@
         <v>170135</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="M44" s="7">
         <v>377</v>
@@ -5046,13 +5010,13 @@
         <v>403315</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,7 +5072,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5130,7 +5094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F6470-0922-415F-9C02-EA8B8895D14D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466798DF-EA23-447C-88AE-FAEB53D3BACC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5147,7 +5111,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5254,13 +5218,13 @@
         <v>21310</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>276</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5269,13 +5233,13 @@
         <v>23448</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -5284,13 +5248,13 @@
         <v>44758</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5269,13 @@
         <v>20314</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5320,13 +5284,13 @@
         <v>15167</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>121</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
@@ -5335,13 +5299,13 @@
         <v>35482</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>116</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5320,13 @@
         <v>20812</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -5371,13 +5335,13 @@
         <v>33919</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -5386,13 +5350,13 @@
         <v>54731</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5371,13 @@
         <v>11090</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -5422,13 +5386,13 @@
         <v>12434</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -5437,13 +5401,13 @@
         <v>23525</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5422,13 @@
         <v>5582</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5473,13 +5437,13 @@
         <v>6887</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -5488,13 +5452,13 @@
         <v>12469</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5526,13 @@
         <v>76381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -5577,13 +5541,13 @@
         <v>57648</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>99</v>
       </c>
       <c r="M10" s="7">
         <v>134</v>
@@ -5592,13 +5556,13 @@
         <v>134029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5577,13 @@
         <v>79575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
@@ -5628,13 +5592,13 @@
         <v>58915</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -5643,13 +5607,13 @@
         <v>138489</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5628,13 @@
         <v>92102</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -5679,13 +5643,13 @@
         <v>67815</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>47</v>
+        <v>354</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M12" s="7">
         <v>158</v>
@@ -5694,13 +5658,13 @@
         <v>159917</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5679,13 @@
         <v>62604</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -5730,13 +5694,13 @@
         <v>54921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -5745,13 +5709,13 @@
         <v>117525</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5730,13 @@
         <v>33524</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -5781,13 +5745,13 @@
         <v>34418</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -5796,13 +5760,13 @@
         <v>67942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,7 +5822,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5870,13 +5834,13 @@
         <v>125228</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -5885,13 +5849,13 @@
         <v>72992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>195</v>
@@ -5900,13 +5864,13 @@
         <v>198220</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5885,13 @@
         <v>71665</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>381</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -5936,13 +5900,13 @@
         <v>57218</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -5951,13 +5915,13 @@
         <v>128884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>18</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,10 +5939,10 @@
         <v>388</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>70</v>
+        <v>389</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H18" s="7">
         <v>89</v>
@@ -5987,13 +5951,13 @@
         <v>90044</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M18" s="7">
         <v>214</v>
@@ -6002,13 +5966,13 @@
         <v>222440</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6017,13 @@
         <v>138750</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6038,13 @@
         <v>46924</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -6089,13 +6053,13 @@
         <v>41785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>83</v>
@@ -6104,13 +6068,13 @@
         <v>88709</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,7 +6130,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6178,13 +6142,13 @@
         <v>90110</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -6193,13 +6157,13 @@
         <v>57321</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>135</v>
@@ -6208,13 +6172,13 @@
         <v>147430</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6193,13 @@
         <v>70305</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>46</v>
@@ -6244,13 +6208,13 @@
         <v>49207</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>110</v>
@@ -6259,13 +6223,13 @@
         <v>119511</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6244,13 @@
         <v>104453</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>429</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>430</v>
+        <v>302</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -6295,13 +6259,13 @@
         <v>58894</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>431</v>
+        <v>228</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>432</v>
+        <v>185</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>26</v>
+        <v>429</v>
       </c>
       <c r="M24" s="7">
         <v>148</v>
@@ -6310,13 +6274,13 @@
         <v>163347</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6295,13 @@
         <v>58798</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>362</v>
+        <v>433</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -6346,13 +6310,13 @@
         <v>42230</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -6361,13 +6325,13 @@
         <v>101027</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6346,13 @@
         <v>44062</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>204</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -6397,13 +6361,13 @@
         <v>35468</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>69</v>
@@ -6412,13 +6376,13 @@
         <v>79530</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>449</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6450,13 @@
         <v>44160</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -6501,13 +6465,13 @@
         <v>18467</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>32</v>
+        <v>450</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M28" s="7">
         <v>56</v>
@@ -6516,13 +6480,13 @@
         <v>62627</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6501,13 @@
         <v>29652</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -6552,13 +6516,13 @@
         <v>24591</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>393</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -6567,13 +6531,13 @@
         <v>54243</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>268</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6552,13 @@
         <v>54895</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>468</v>
+        <v>424</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -6603,13 +6567,13 @@
         <v>32577</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M30" s="7">
         <v>75</v>
@@ -6618,13 +6582,13 @@
         <v>87472</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +6603,13 @@
         <v>22081</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -6654,13 +6618,13 @@
         <v>15334</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="M31" s="7">
         <v>33</v>
@@ -6669,13 +6633,13 @@
         <v>37415</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>482</v>
+        <v>48</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>483</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,13 +6654,13 @@
         <v>14938</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -6705,13 +6669,13 @@
         <v>14910</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>490</v>
+        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>26</v>
@@ -6720,13 +6684,13 @@
         <v>29848</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,7 +6746,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6794,13 +6758,13 @@
         <v>2031</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6809,13 +6773,13 @@
         <v>2069</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -6824,13 +6788,13 @@
         <v>4100</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,13 +6809,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6860,13 +6824,13 @@
         <v>905</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>32</v>
+        <v>450</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6875,13 +6839,13 @@
         <v>905</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,13 +6860,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6911,13 +6875,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6926,13 +6890,13 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6911,13 @@
         <v>1958</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -6962,13 +6926,13 @@
         <v>2216</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -6977,13 +6941,13 @@
         <v>4175</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,13 +6962,13 @@
         <v>946</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7013,13 +6977,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -7028,13 +6992,13 @@
         <v>946</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7102,13 +7066,13 @@
         <v>359219</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="H40" s="7">
         <v>229</v>
@@ -7117,13 +7081,13 @@
         <v>231944</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>94</v>
+        <v>512</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="M40" s="7">
         <v>568</v>
@@ -7132,13 +7096,13 @@
         <v>591164</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>344</v>
+        <v>516</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7153,13 +7117,13 @@
         <v>271511</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="H41" s="7">
         <v>204</v>
@@ -7171,10 +7135,10 @@
         <v>193</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>34</v>
+        <v>494</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>529</v>
+        <v>360</v>
       </c>
       <c r="M41" s="7">
         <v>455</v>
@@ -7183,13 +7147,13 @@
         <v>477514</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>530</v>
+        <v>57</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>318</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,13 +7168,13 @@
         <v>405708</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="H42" s="7">
         <v>274</v>
@@ -7219,13 +7183,13 @@
         <v>283248</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="M42" s="7">
         <v>649</v>
@@ -7234,13 +7198,13 @@
         <v>688957</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>538</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,13 +7219,13 @@
         <v>239908</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="H43" s="7">
         <v>180</v>
@@ -7270,13 +7234,13 @@
         <v>182509</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>543</v>
+        <v>402</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>414</v>
+        <v>193</v>
       </c>
       <c r="M43" s="7">
         <v>408</v>
@@ -7285,13 +7249,13 @@
         <v>422417</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>545</v>
+        <v>460</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,13 +7270,13 @@
         <v>145975</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H44" s="7">
         <v>126</v>
@@ -7321,13 +7285,13 @@
         <v>133468</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>454</v>
+        <v>539</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>48</v>
+        <v>540</v>
       </c>
       <c r="M44" s="7">
         <v>256</v>
@@ -7336,13 +7300,13 @@
         <v>279443</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,7 +7362,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -7420,7 +7384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E73391F-7595-4933-8909-1E8D51529A38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822BD8DE-2A41-4B79-83F6-5E8D5108A143}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7437,7 +7401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7544,13 +7508,13 @@
         <v>5085</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -7559,13 +7523,13 @@
         <v>11006</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -7574,13 +7538,13 @@
         <v>16091</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +7559,13 @@
         <v>3873</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>66</v>
+        <v>554</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -7613,10 +7577,10 @@
         <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -7625,13 +7589,13 @@
         <v>8745</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7610,13 @@
         <v>4939</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -7661,13 +7625,13 @@
         <v>8253</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -7676,13 +7640,13 @@
         <v>13192</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>425</v>
+        <v>567</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7661,13 @@
         <v>8688</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>579</v>
+        <v>455</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -7712,13 +7676,13 @@
         <v>4611</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -7727,13 +7691,13 @@
         <v>13299</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>585</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7712,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7763,13 +7727,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7778,13 +7742,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,13 +7816,13 @@
         <v>29197</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -7867,13 +7831,13 @@
         <v>28734</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -7882,13 +7846,13 @@
         <v>57931</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7867,13 @@
         <v>23136</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>285</v>
+        <v>588</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -7921,10 +7885,10 @@
         <v>89</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>592</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -7933,13 +7897,13 @@
         <v>36076</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>457</v>
+        <v>593</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>594</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7918,13 @@
         <v>32321</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>596</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -7969,13 +7933,13 @@
         <v>28033</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="M12" s="7">
         <v>49</v>
@@ -7984,13 +7948,13 @@
         <v>60354</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>608</v>
+        <v>355</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>610</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7969,13 @@
         <v>12937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -8020,13 +7984,13 @@
         <v>10355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>615</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -8035,13 +7999,13 @@
         <v>23292</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8020,13 @@
         <v>13153</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -8071,13 +8035,13 @@
         <v>11291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -8086,13 +8050,13 @@
         <v>24444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,7 +8112,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8160,13 +8124,13 @@
         <v>36367</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>629</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -8175,13 +8139,13 @@
         <v>27772</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>361</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -8190,13 +8154,13 @@
         <v>64139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +8175,13 @@
         <v>26468</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -8226,13 +8190,13 @@
         <v>14027</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -8241,13 +8205,13 @@
         <v>40494</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>631</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>642</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>632</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8226,13 @@
         <v>22877</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>644</v>
+        <v>194</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -8277,13 +8241,13 @@
         <v>32312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
@@ -8292,13 +8256,13 @@
         <v>55189</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8277,13 @@
         <v>12032</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>652</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>282</v>
+        <v>642</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -8328,13 +8292,13 @@
         <v>15326</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>644</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>655</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -8343,13 +8307,13 @@
         <v>27358</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>656</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8328,13 @@
         <v>10707</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>649</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -8379,13 +8343,13 @@
         <v>11235</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>661</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>544</v>
+        <v>651</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -8394,13 +8358,13 @@
         <v>21942</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,7 +8420,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8468,13 +8432,13 @@
         <v>97623</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -8483,13 +8447,13 @@
         <v>36777</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>670</v>
+        <v>457</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -8498,13 +8462,13 @@
         <v>134399</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,13 +8483,13 @@
         <v>20133</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>664</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -8534,13 +8498,13 @@
         <v>21034</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>623</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
         <v>54</v>
@@ -8549,13 +8513,13 @@
         <v>41167</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +8534,13 @@
         <v>35526</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="H24" s="7">
         <v>59</v>
@@ -8585,13 +8549,13 @@
         <v>36386</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>682</v>
+        <v>421</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="M24" s="7">
         <v>96</v>
@@ -8600,13 +8564,13 @@
         <v>71912</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8585,13 @@
         <v>17471</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -8636,13 +8600,13 @@
         <v>16534</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>320</v>
+        <v>489</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -8651,13 +8615,13 @@
         <v>34005</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>284</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8636,13 @@
         <v>10589</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -8687,13 +8651,13 @@
         <v>9948</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -8702,13 +8666,13 @@
         <v>20537</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,13 +8740,13 @@
         <v>13096</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>388</v>
+        <v>689</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -8791,13 +8755,13 @@
         <v>10887</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="M28" s="7">
         <v>32</v>
@@ -8809,10 +8773,10 @@
         <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>704</v>
+        <v>282</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>705</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,13 +8791,13 @@
         <v>14405</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -8842,13 +8806,13 @@
         <v>7073</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>710</v>
+        <v>503</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -8857,13 +8821,13 @@
         <v>21478</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +8842,13 @@
         <v>26660</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -8893,13 +8857,13 @@
         <v>14242</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>634</v>
+        <v>517</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -8908,13 +8872,13 @@
         <v>40901</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,13 +8893,13 @@
         <v>8902</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>724</v>
+        <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>725</v>
+        <v>386</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -8944,13 +8908,13 @@
         <v>5935</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>728</v>
+        <v>461</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -8959,13 +8923,13 @@
         <v>14837</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>400</v>
+        <v>712</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>480</v>
+        <v>713</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>729</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +8944,13 @@
         <v>6273</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -8995,13 +8959,13 @@
         <v>1926</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>660</v>
+        <v>717</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -9010,13 +8974,13 @@
         <v>8200</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9072,7 +9036,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9084,13 +9048,13 @@
         <v>3180</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -9099,13 +9063,13 @@
         <v>2574</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>123</v>
+        <v>725</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -9114,13 +9078,13 @@
         <v>5755</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>427</v>
+        <v>730</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -9150,13 +9114,13 @@
         <v>2349</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -9165,13 +9129,13 @@
         <v>2349</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>630</v>
+        <v>736</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9186,13 +9150,13 @@
         <v>717</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -9201,13 +9165,13 @@
         <v>1074</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -9216,13 +9180,13 @@
         <v>1791</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9237,13 +9201,13 @@
         <v>563</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -9252,13 +9216,13 @@
         <v>466</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -9267,13 +9231,13 @@
         <v>1028</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9288,13 +9252,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>427</v>
+        <v>730</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -9303,13 +9267,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -9318,13 +9282,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,13 +9356,13 @@
         <v>184547</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="H40" s="7">
         <v>146</v>
@@ -9407,13 +9371,13 @@
         <v>117751</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>645</v>
+        <v>16</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>584</v>
+        <v>754</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="M40" s="7">
         <v>264</v>
@@ -9422,13 +9386,13 @@
         <v>302298</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,13 +9407,13 @@
         <v>88015</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>159</v>
+        <v>759</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="H41" s="7">
         <v>88</v>
@@ -9458,13 +9422,13 @@
         <v>62294</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>63</v>
+        <v>365</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>771</v>
+        <v>719</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>54</v>
+        <v>761</v>
       </c>
       <c r="M41" s="7">
         <v>163</v>
@@ -9473,13 +9437,13 @@
         <v>150308</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>772</v>
+        <v>143</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>773</v>
+        <v>45</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9494,13 +9458,13 @@
         <v>123039</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>776</v>
+        <v>279</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="H42" s="7">
         <v>163</v>
@@ -9509,13 +9473,13 @@
         <v>120300</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="M42" s="7">
         <v>281</v>
@@ -9524,13 +9488,13 @@
         <v>243340</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>199</v>
+        <v>768</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>781</v>
+        <v>512</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>673</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9545,13 +9509,13 @@
         <v>60591</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="H43" s="7">
         <v>72</v>
@@ -9560,13 +9524,13 @@
         <v>53228</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>18</v>
+        <v>774</v>
       </c>
       <c r="M43" s="7">
         <v>127</v>
@@ -9575,13 +9539,13 @@
         <v>113819</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>579</v>
+        <v>776</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>788</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9596,13 +9560,13 @@
         <v>40722</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>789</v>
+        <v>713</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="H44" s="7">
         <v>42</v>
@@ -9611,13 +9575,13 @@
         <v>34401</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>574</v>
+        <v>781</v>
       </c>
       <c r="M44" s="7">
         <v>72</v>
@@ -9626,13 +9590,13 @@
         <v>75123</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9688,7 +9652,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6705-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5355611D-0C25-4069-9E56-9C45AF546D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83CF4021-E017-4DA9-9EF4-4CC75ACADDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F167D48-B185-49E0-8861-ADAF124CD7CB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C4A4B15B-5B59-4A7B-93DE-E7FE76459749}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="806">
   <si>
     <t>Población según si su trabajo es desgastador emocionalmente en 2012 (Tasa respuesta: 33,81%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -223,7 +223,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>20,28%</t>
@@ -355,7 +355,7 @@
     <t>22,8%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>16,88%</t>
@@ -490,7 +490,7 @@
     <t>18,91%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>20,73%</t>
@@ -616,7 +616,7 @@
     <t>19,23%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>19,86%</t>
@@ -745,7 +745,7 @@
     <t>22,11%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -799,6 +799,12 @@
     <t>67,03%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>19,57%</t>
   </si>
   <si>
@@ -1492,10 +1498,10 @@
     <t>15,36%</t>
   </si>
   <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
   </si>
   <si>
     <t>39,86%</t>
@@ -1504,895 +1510,952 @@
     <t>82,19%</t>
   </si>
   <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>8,1%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>35,24%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
 </sst>
 </file>
@@ -2804,8 +2867,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228A9F1C-4EFC-4D73-8ECA-4004F98B27EF}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62547F6-1ADE-4883-A971-E48C246B2E98}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4764,55 +4827,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>259</v>
-      </c>
-      <c r="D40" s="7">
-        <v>276495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H40" s="7">
-        <v>192</v>
-      </c>
-      <c r="I40" s="7">
-        <v>209936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="M40" s="7">
-        <v>451</v>
-      </c>
-      <c r="N40" s="7">
-        <v>486430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,49 +4878,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>208</v>
-      </c>
-      <c r="D41" s="7">
-        <v>216585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H41" s="7">
-        <v>147</v>
-      </c>
-      <c r="I41" s="7">
-        <v>155185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
-        <v>355</v>
-      </c>
-      <c r="N41" s="7">
-        <v>371769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,49 +4923,43 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>383</v>
-      </c>
-      <c r="D42" s="7">
-        <v>409949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="H42" s="7">
-        <v>224</v>
-      </c>
-      <c r="I42" s="7">
-        <v>241701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="M42" s="7">
-        <v>607</v>
-      </c>
-      <c r="N42" s="7">
-        <v>651649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,49 +4968,43 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>256</v>
-      </c>
-      <c r="D43" s="7">
-        <v>276768</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="H43" s="7">
-        <v>154</v>
-      </c>
-      <c r="I43" s="7">
-        <v>169742</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
-        <v>410</v>
-      </c>
-      <c r="N43" s="7">
-        <v>446510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,49 +5013,43 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>220</v>
-      </c>
-      <c r="D44" s="7">
-        <v>233181</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="H44" s="7">
-        <v>157</v>
-      </c>
-      <c r="I44" s="7">
-        <v>170135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="M44" s="7">
-        <v>377</v>
-      </c>
-      <c r="N44" s="7">
-        <v>403315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,63 +5058,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>259</v>
+      </c>
+      <c r="D46" s="7">
+        <v>276495</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H46" s="7">
+        <v>192</v>
+      </c>
+      <c r="I46" s="7">
+        <v>209936</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" s="7">
+        <v>451</v>
+      </c>
+      <c r="N46" s="7">
+        <v>486430</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>208</v>
+      </c>
+      <c r="D47" s="7">
+        <v>216585</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H47" s="7">
+        <v>147</v>
+      </c>
+      <c r="I47" s="7">
+        <v>155185</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M47" s="7">
+        <v>355</v>
+      </c>
+      <c r="N47" s="7">
+        <v>371769</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>383</v>
+      </c>
+      <c r="D48" s="7">
+        <v>409949</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H48" s="7">
+        <v>224</v>
+      </c>
+      <c r="I48" s="7">
+        <v>241701</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M48" s="7">
+        <v>607</v>
+      </c>
+      <c r="N48" s="7">
+        <v>651649</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>256</v>
+      </c>
+      <c r="D49" s="7">
+        <v>276768</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H49" s="7">
+        <v>154</v>
+      </c>
+      <c r="I49" s="7">
+        <v>169742</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M49" s="7">
+        <v>410</v>
+      </c>
+      <c r="N49" s="7">
+        <v>446510</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>220</v>
+      </c>
+      <c r="D50" s="7">
+        <v>233181</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H50" s="7">
+        <v>157</v>
+      </c>
+      <c r="I50" s="7">
+        <v>170135</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M50" s="7">
+        <v>377</v>
+      </c>
+      <c r="N50" s="7">
+        <v>403315</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1326</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1412977</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>874</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>946698</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2200</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2359674</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>294</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5094,8 +5430,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466798DF-EA23-447C-88AE-FAEB53D3BACC}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A21961-4F6D-4F9C-B85D-2D553EE561BC}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5111,7 +5447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5218,13 +5554,13 @@
         <v>21310</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5233,13 +5569,13 @@
         <v>23448</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -5248,13 +5584,13 @@
         <v>44758</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5605,13 @@
         <v>20314</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5284,13 +5620,13 @@
         <v>15167</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
@@ -5299,13 +5635,13 @@
         <v>35482</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5656,13 @@
         <v>20812</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -5335,13 +5671,13 @@
         <v>33919</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -5350,13 +5686,13 @@
         <v>54731</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,13 +5707,13 @@
         <v>11090</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -5386,10 +5722,10 @@
         <v>12434</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>209</v>
@@ -5401,13 +5737,13 @@
         <v>23525</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5758,13 @@
         <v>5582</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5437,13 +5773,13 @@
         <v>6887</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -5452,13 +5788,13 @@
         <v>12469</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5862,13 @@
         <v>76381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -5541,7 +5877,7 @@
         <v>57648</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>66</v>
@@ -5556,13 +5892,13 @@
         <v>134029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5913,13 @@
         <v>79575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
@@ -5592,13 +5928,13 @@
         <v>58915</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -5607,13 +5943,13 @@
         <v>138489</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5964,13 @@
         <v>92102</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>234</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -5643,13 +5979,13 @@
         <v>67815</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M12" s="7">
         <v>158</v>
@@ -5658,13 +5994,13 @@
         <v>159917</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +6015,13 @@
         <v>62604</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -5694,13 +6030,13 @@
         <v>54921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -5709,13 +6045,13 @@
         <v>117525</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +6066,13 @@
         <v>33524</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -5745,13 +6081,13 @@
         <v>34418</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -5760,10 +6096,10 @@
         <v>67942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>194</v>
@@ -5834,13 +6170,13 @@
         <v>125228</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -5849,13 +6185,13 @@
         <v>72992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>195</v>
@@ -5867,10 +6203,10 @@
         <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,7 +6221,7 @@
         <v>71665</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>164</v>
@@ -5900,25 +6236,25 @@
         <v>57218</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
       </c>
       <c r="N17" s="7">
-        <v>128884</v>
+        <v>128883</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>123</v>
@@ -5936,13 +6272,13 @@
         <v>132395</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H18" s="7">
         <v>89</v>
@@ -5951,28 +6287,28 @@
         <v>90044</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M18" s="7">
         <v>214</v>
       </c>
       <c r="N18" s="7">
-        <v>222440</v>
+        <v>222439</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +6323,13 @@
         <v>83376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -6002,13 +6338,13 @@
         <v>55374</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -6020,10 +6356,10 @@
         <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6374,13 @@
         <v>46924</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -6056,7 +6392,7 @@
         <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>143</v>
@@ -6065,16 +6401,16 @@
         <v>83</v>
       </c>
       <c r="N20" s="7">
-        <v>88709</v>
+        <v>88708</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,7 +6452,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6142,13 +6478,13 @@
         <v>90110</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -6157,13 +6493,13 @@
         <v>57321</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>135</v>
@@ -6172,13 +6508,13 @@
         <v>147430</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6529,13 @@
         <v>70305</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
         <v>46</v>
@@ -6208,13 +6544,13 @@
         <v>49207</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
         <v>110</v>
@@ -6223,13 +6559,13 @@
         <v>119511</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6580,13 @@
         <v>104453</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -6265,7 +6601,7 @@
         <v>185</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M24" s="7">
         <v>148</v>
@@ -6274,13 +6610,13 @@
         <v>163347</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6631,13 @@
         <v>58798</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -6313,10 +6649,10 @@
         <v>248</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -6325,13 +6661,13 @@
         <v>101027</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,10 +6682,10 @@
         <v>44062</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>204</v>
@@ -6361,13 +6697,13 @@
         <v>35468</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>69</v>
@@ -6382,7 +6718,7 @@
         <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6786,13 @@
         <v>44160</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -6465,13 +6801,13 @@
         <v>18467</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>56</v>
@@ -6480,13 +6816,13 @@
         <v>62627</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>69</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +6837,13 @@
         <v>29652</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -6516,13 +6852,13 @@
         <v>24591</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -6531,13 +6867,13 @@
         <v>54243</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,13 +6888,13 @@
         <v>54895</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -6567,13 +6903,13 @@
         <v>32577</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M30" s="7">
         <v>75</v>
@@ -6582,13 +6918,13 @@
         <v>87472</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6939,13 @@
         <v>22081</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -6618,13 +6954,13 @@
         <v>15334</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M31" s="7">
         <v>33</v>
@@ -6639,7 +6975,7 @@
         <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6990,13 @@
         <v>14938</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -6669,10 +7005,10 @@
         <v>14910</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>94</v>
@@ -6684,13 +7020,13 @@
         <v>29848</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,19 +7088,19 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>2031</v>
+        <v>1236</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6773,28 +7109,28 @@
         <v>2069</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>4100</v>
+        <v>3305</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,7 +7151,7 @@
         <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>250</v>
+        <v>493</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6824,13 +7160,13 @@
         <v>905</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>236</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6839,13 +7175,13 @@
         <v>905</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>236</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,13 +7196,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>494</v>
+        <v>424</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6881,7 +7217,7 @@
         <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6890,13 +7226,13 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,13 +7247,13 @@
         <v>1958</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -6926,13 +7262,13 @@
         <v>2216</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>236</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -6941,13 +7277,13 @@
         <v>4175</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +7298,13 @@
         <v>946</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6983,7 +7319,7 @@
         <v>237</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -6992,13 +7328,13 @@
         <v>946</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>236</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,10 +7343,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7037,10 +7373,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7054,55 +7390,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>339</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>359219</v>
+        <v>795</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>509</v>
+        <v>240</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="N40" s="7">
+        <v>795</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="H40" s="7">
-        <v>229</v>
-      </c>
-      <c r="I40" s="7">
-        <v>231944</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="M40" s="7">
-        <v>568</v>
-      </c>
-      <c r="N40" s="7">
-        <v>591164</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="Q40" s="7" t="s">
-        <v>517</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,49 +7445,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>271511</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>518</v>
+        <v>236</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>519</v>
+        <v>237</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="H41" s="7">
-        <v>204</v>
-      </c>
-      <c r="I41" s="7">
-        <v>206003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>494</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>360</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>477514</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>216</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,49 +7494,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>405708</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>521</v>
+        <v>236</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>522</v>
+        <v>237</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="H42" s="7">
-        <v>274</v>
-      </c>
-      <c r="I42" s="7">
-        <v>283248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>524</v>
+        <v>254</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>525</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>526</v>
+        <v>254</v>
       </c>
       <c r="M42" s="7">
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>688957</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>527</v>
+        <v>236</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>528</v>
+        <v>237</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>429</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,49 +7543,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>239908</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>529</v>
+        <v>236</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>530</v>
+        <v>237</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="H43" s="7">
-        <v>180</v>
-      </c>
-      <c r="I43" s="7">
-        <v>182509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>532</v>
+        <v>254</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>402</v>
+        <v>254</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>422417</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>533</v>
+        <v>236</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>460</v>
+        <v>237</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,49 +7592,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>145975</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>535</v>
+        <v>236</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>536</v>
+        <v>237</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="H44" s="7">
-        <v>126</v>
-      </c>
-      <c r="I44" s="7">
-        <v>133468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>538</v>
+        <v>254</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>539</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>540</v>
+        <v>254</v>
       </c>
       <c r="M44" s="7">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>279443</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>541</v>
+        <v>236</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>542</v>
+        <v>237</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,63 +7641,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>339</v>
+      </c>
+      <c r="D46" s="7">
+        <v>359219</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H46" s="7">
+        <v>229</v>
+      </c>
+      <c r="I46" s="7">
+        <v>231944</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="M46" s="7">
+        <v>568</v>
+      </c>
+      <c r="N46" s="7">
+        <v>591164</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>251</v>
+      </c>
+      <c r="D47" s="7">
+        <v>271511</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="H47" s="7">
+        <v>204</v>
+      </c>
+      <c r="I47" s="7">
+        <v>206003</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M47" s="7">
+        <v>455</v>
+      </c>
+      <c r="N47" s="7">
+        <v>477514</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>375</v>
+      </c>
+      <c r="D48" s="7">
+        <v>405708</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H48" s="7">
+        <v>274</v>
+      </c>
+      <c r="I48" s="7">
+        <v>283248</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="M48" s="7">
+        <v>649</v>
+      </c>
+      <c r="N48" s="7">
+        <v>688957</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>228</v>
+      </c>
+      <c r="D49" s="7">
+        <v>239908</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H49" s="7">
+        <v>180</v>
+      </c>
+      <c r="I49" s="7">
+        <v>182509</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M49" s="7">
+        <v>408</v>
+      </c>
+      <c r="N49" s="7">
+        <v>422417</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>130</v>
+      </c>
+      <c r="D50" s="7">
+        <v>145975</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="H50" s="7">
+        <v>126</v>
+      </c>
+      <c r="I50" s="7">
+        <v>133468</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="M50" s="7">
+        <v>256</v>
+      </c>
+      <c r="N50" s="7">
+        <v>279443</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>294</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7384,8 +8017,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822BD8DE-2A41-4B79-83F6-5E8D5108A143}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135DCA2B-3C5D-4580-A896-5FC80BF3E282}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7401,7 +8034,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7505,46 +8138,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>5085</v>
+        <v>7594</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>11006</v>
+        <v>9575</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>16091</v>
+        <v>17169</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,46 +8189,46 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>3873</v>
+        <v>3772</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>554</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>4872</v>
+        <v>4549</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>27</v>
+        <v>560</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>8745</v>
+        <v>8321</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>558</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7607,46 +8240,46 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>4939</v>
+        <v>4559</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>561</v>
+        <v>442</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>8253</v>
+        <v>7092</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>13192</v>
+        <v>11651</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,46 +8291,46 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>8688</v>
+        <v>7467</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>455</v>
+        <v>574</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>4611</v>
+        <v>3934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>13299</v>
+        <v>11401</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>580</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7718,7 +8351,7 @@
         <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7733,7 +8366,7 @@
         <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7748,7 +8381,7 @@
         <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,7 +8393,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>22585</v>
+        <v>23392</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -7775,7 +8408,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>28742</v>
+        <v>25150</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -7790,7 +8423,7 @@
         <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>51327</v>
+        <v>48542</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -7813,46 +8446,46 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>29197</v>
+        <v>27849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>28734</v>
+        <v>25833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>561</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>57931</v>
+        <v>53682</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>585</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,46 +8497,46 @@
         <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>23136</v>
+        <v>22875</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>12940</v>
+        <v>11468</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>89</v>
+        <v>595</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>592</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
       </c>
       <c r="N11" s="7">
-        <v>36076</v>
+        <v>34342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,46 +8548,46 @@
         <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>32321</v>
+        <v>31964</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>595</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>28033</v>
+        <v>25543</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>599</v>
+        <v>44</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="M12" s="7">
         <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>60354</v>
+        <v>57507</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>355</v>
+        <v>604</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,46 +8599,46 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>12937</v>
+        <v>11884</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>10355</v>
+        <v>9162</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>611</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>23292</v>
+        <v>21046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,46 +8650,46 @@
         <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>13153</v>
+        <v>12481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>11291</v>
+        <v>10329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
       </c>
       <c r="N14" s="7">
-        <v>24444</v>
+        <v>22811</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,7 +8701,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="7">
-        <v>110743</v>
+        <v>107053</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -8083,7 +8716,7 @@
         <v>88</v>
       </c>
       <c r="I15" s="7">
-        <v>91354</v>
+        <v>82336</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -8098,7 +8731,7 @@
         <v>158</v>
       </c>
       <c r="N15" s="7">
-        <v>202097</v>
+        <v>189389</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -8121,46 +8754,46 @@
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>36367</v>
+        <v>34323</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>626</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
       </c>
       <c r="I16" s="7">
-        <v>27772</v>
+        <v>25779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
       </c>
       <c r="N16" s="7">
-        <v>64139</v>
+        <v>60102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,46 +8805,46 @@
         <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>26468</v>
+        <v>25510</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>626</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
       </c>
       <c r="I17" s="7">
-        <v>14027</v>
+        <v>13301</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>630</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
       </c>
       <c r="N17" s="7">
-        <v>40494</v>
+        <v>38811</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>638</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,46 +8856,46 @@
         <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>22877</v>
+        <v>22944</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>633</v>
+        <v>340</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>194</v>
+        <v>640</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
       </c>
       <c r="I18" s="7">
-        <v>32312</v>
+        <v>29920</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
       </c>
       <c r="N18" s="7">
-        <v>55189</v>
+        <v>52864</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>639</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8274,46 +8907,46 @@
         <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>12032</v>
+        <v>11076</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>136</v>
+        <v>647</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>15326</v>
+        <v>13725</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>652</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
       </c>
       <c r="N19" s="7">
-        <v>27358</v>
+        <v>24801</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>653</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8325,46 +8958,46 @@
         <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>10707</v>
+        <v>9530</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
       </c>
       <c r="I20" s="7">
-        <v>11235</v>
+        <v>10341</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>613</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
       </c>
       <c r="N20" s="7">
-        <v>21942</v>
+        <v>19871</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>652</v>
+        <v>498</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8376,7 +9009,7 @@
         <v>103</v>
       </c>
       <c r="D21" s="7">
-        <v>108451</v>
+        <v>103383</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -8391,7 +9024,7 @@
         <v>139</v>
       </c>
       <c r="I21" s="7">
-        <v>100672</v>
+        <v>93067</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -8406,7 +9039,7 @@
         <v>242</v>
       </c>
       <c r="N21" s="7">
-        <v>209123</v>
+        <v>196449</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -8429,46 +9062,46 @@
         <v>47</v>
       </c>
       <c r="D22" s="7">
-        <v>97623</v>
+        <v>288648</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
       </c>
       <c r="I22" s="7">
-        <v>36777</v>
+        <v>33716</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>457</v>
+        <v>667</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
       </c>
       <c r="N22" s="7">
-        <v>134399</v>
+        <v>322364</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8480,46 +9113,46 @@
         <v>20</v>
       </c>
       <c r="D23" s="7">
-        <v>20133</v>
+        <v>18856</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>665</v>
+        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
       </c>
       <c r="I23" s="7">
-        <v>21034</v>
+        <v>19495</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>615</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>674</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>675</v>
       </c>
       <c r="M23" s="7">
         <v>54</v>
       </c>
       <c r="N23" s="7">
-        <v>41167</v>
+        <v>38350</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>668</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8531,46 +9164,46 @@
         <v>37</v>
       </c>
       <c r="D24" s="7">
-        <v>35526</v>
+        <v>33270</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>678</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="H24" s="7">
         <v>59</v>
       </c>
       <c r="I24" s="7">
-        <v>36386</v>
+        <v>34049</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>421</v>
+        <v>682</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="M24" s="7">
         <v>96</v>
       </c>
       <c r="N24" s="7">
-        <v>71912</v>
+        <v>67319</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>634</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8582,46 +9215,46 @@
         <v>18</v>
       </c>
       <c r="D25" s="7">
-        <v>17471</v>
+        <v>16633</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>264</v>
+        <v>689</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
       </c>
       <c r="I25" s="7">
-        <v>16534</v>
+        <v>15218</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>676</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>489</v>
+        <v>690</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>259</v>
+        <v>691</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
       </c>
       <c r="N25" s="7">
-        <v>34005</v>
+        <v>31851</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8633,46 +9266,46 @@
         <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>10589</v>
+        <v>9763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>682</v>
+        <v>547</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>9948</v>
+        <v>9102</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>229</v>
+        <v>699</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
       </c>
       <c r="N26" s="7">
-        <v>20537</v>
+        <v>18865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>687</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8684,7 +9317,7 @@
         <v>130</v>
       </c>
       <c r="D27" s="7">
-        <v>181341</v>
+        <v>367170</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -8699,7 +9332,7 @@
         <v>187</v>
       </c>
       <c r="I27" s="7">
-        <v>120679</v>
+        <v>111580</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -8714,7 +9347,7 @@
         <v>317</v>
       </c>
       <c r="N27" s="7">
-        <v>302020</v>
+        <v>478750</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -8737,46 +9370,46 @@
         <v>13</v>
       </c>
       <c r="D28" s="7">
-        <v>13096</v>
+        <v>12436</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
       </c>
       <c r="I28" s="7">
-        <v>10887</v>
+        <v>10065</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="M28" s="7">
         <v>32</v>
       </c>
       <c r="N28" s="7">
-        <v>23983</v>
+        <v>22500</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>181</v>
+        <v>708</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>86</v>
+        <v>709</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8788,46 +9421,46 @@
         <v>15</v>
       </c>
       <c r="D29" s="7">
-        <v>14405</v>
+        <v>12784</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
       </c>
       <c r="I29" s="7">
-        <v>7073</v>
+        <v>6491</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>503</v>
+        <v>714</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
       </c>
       <c r="N29" s="7">
-        <v>21478</v>
+        <v>19275</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>700</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8839,46 +9472,46 @@
         <v>29</v>
       </c>
       <c r="D30" s="7">
-        <v>26660</v>
+        <v>25679</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>702</v>
+        <v>177</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
       </c>
       <c r="I30" s="7">
-        <v>14242</v>
+        <v>13043</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>517</v>
+        <v>721</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
       </c>
       <c r="N30" s="7">
-        <v>40901</v>
+        <v>38722</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8890,46 +9523,46 @@
         <v>10</v>
       </c>
       <c r="D31" s="7">
-        <v>8902</v>
+        <v>8116</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>727</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>386</v>
+        <v>728</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
       </c>
       <c r="I31" s="7">
-        <v>5935</v>
+        <v>5436</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>461</v>
+        <v>731</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
       </c>
       <c r="N31" s="7">
-        <v>14837</v>
+        <v>13552</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>712</v>
+        <v>93</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>167</v>
+        <v>733</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,46 +9574,46 @@
         <v>6</v>
       </c>
       <c r="D32" s="7">
-        <v>6273</v>
+        <v>5823</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>1926</v>
+        <v>1765</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
       </c>
       <c r="N32" s="7">
-        <v>8200</v>
+        <v>7587</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>332</v>
+        <v>740</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8992,7 +9625,7 @@
         <v>73</v>
       </c>
       <c r="D33" s="7">
-        <v>69336</v>
+        <v>64838</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -9007,7 +9640,7 @@
         <v>66</v>
       </c>
       <c r="I33" s="7">
-        <v>40063</v>
+        <v>36800</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -9022,7 +9655,7 @@
         <v>139</v>
       </c>
       <c r="N33" s="7">
-        <v>109399</v>
+        <v>101637</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -9042,16 +9675,16 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>3180</v>
+        <v>2246</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>240</v>
@@ -9060,31 +9693,31 @@
         <v>5</v>
       </c>
       <c r="I34" s="7">
-        <v>2574</v>
+        <v>2416</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="M34" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N34" s="7">
-        <v>5755</v>
+        <v>4662</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9105,37 +9738,37 @@
         <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>730</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
       </c>
       <c r="I35" s="7">
-        <v>2349</v>
+        <v>2183</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
       </c>
       <c r="N35" s="7">
-        <v>2349</v>
+        <v>2183</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>734</v>
+        <v>94</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9147,46 +9780,46 @@
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>717</v>
+        <v>784</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>737</v>
+        <v>708</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
       </c>
       <c r="I36" s="7">
-        <v>1074</v>
+        <v>1040</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>236</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
       </c>
       <c r="N36" s="7">
-        <v>1791</v>
+        <v>1824</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9198,46 +9831,46 @@
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>563</v>
+        <v>512</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>746</v>
+        <v>574</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>236</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>1028</v>
+        <v>946</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>236</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>749</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9258,7 +9891,7 @@
         <v>237</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>730</v>
+        <v>250</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -9273,7 +9906,7 @@
         <v>237</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -9288,7 +9921,7 @@
         <v>237</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>578</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9297,10 +9930,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="7">
-        <v>4460</v>
+        <v>3542</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -9315,7 +9948,7 @@
         <v>12</v>
       </c>
       <c r="I39" s="7">
-        <v>6462</v>
+        <v>6073</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -9327,10 +9960,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N39" s="7">
-        <v>10922</v>
+        <v>9615</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -9344,55 +9977,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>184547</v>
+        <v>746</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>751</v>
+        <v>240</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>752</v>
+        <v>511</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>753</v>
+        <v>60</v>
       </c>
       <c r="H40" s="7">
-        <v>146</v>
-      </c>
-      <c r="I40" s="7">
-        <v>117751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>754</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>755</v>
+        <v>254</v>
       </c>
       <c r="M40" s="7">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>302298</v>
+        <v>746</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>756</v>
+        <v>240</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>757</v>
+        <v>511</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>758</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9401,49 +10032,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>88015</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>759</v>
+        <v>237</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>760</v>
+        <v>512</v>
       </c>
       <c r="H41" s="7">
-        <v>88</v>
-      </c>
-      <c r="I41" s="7">
-        <v>62294</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>761</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>150308</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>762</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9452,49 +10081,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>123039</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>763</v>
+        <v>236</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>764</v>
+        <v>512</v>
       </c>
       <c r="H42" s="7">
-        <v>163</v>
-      </c>
-      <c r="I42" s="7">
-        <v>120300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>765</v>
+        <v>254</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>766</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>767</v>
+        <v>254</v>
       </c>
       <c r="M42" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>243340</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>768</v>
+        <v>236</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9503,49 +10130,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>60591</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>769</v>
+        <v>236</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>770</v>
+        <v>237</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>771</v>
+        <v>512</v>
       </c>
       <c r="H43" s="7">
-        <v>72</v>
-      </c>
-      <c r="I43" s="7">
-        <v>53228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>772</v>
+        <v>254</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>773</v>
+        <v>254</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>774</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>113819</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>775</v>
+        <v>236</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>776</v>
+        <v>237</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>290</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9554,49 +10179,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>40722</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>713</v>
+        <v>236</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>777</v>
+        <v>237</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>778</v>
+        <v>512</v>
       </c>
       <c r="H44" s="7">
-        <v>42</v>
-      </c>
-      <c r="I44" s="7">
-        <v>34401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>779</v>
+        <v>254</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>780</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>781</v>
+        <v>254</v>
       </c>
       <c r="M44" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>75123</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>782</v>
+        <v>236</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>783</v>
+        <v>237</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>784</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9605,63 +10228,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>746</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>746</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>118</v>
+      </c>
+      <c r="D46" s="7">
+        <v>373842</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H46" s="7">
+        <v>146</v>
+      </c>
+      <c r="I46" s="7">
+        <v>107384</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="M46" s="7">
+        <v>264</v>
+      </c>
+      <c r="N46" s="7">
+        <v>481226</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>75</v>
+      </c>
+      <c r="D47" s="7">
+        <v>83797</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="H47" s="7">
+        <v>88</v>
+      </c>
+      <c r="I47" s="7">
+        <v>57487</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="M47" s="7">
+        <v>163</v>
+      </c>
+      <c r="N47" s="7">
+        <v>141284</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>118</v>
+      </c>
+      <c r="D48" s="7">
+        <v>119200</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="H48" s="7">
+        <v>163</v>
+      </c>
+      <c r="I48" s="7">
+        <v>110688</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="M48" s="7">
+        <v>281</v>
+      </c>
+      <c r="N48" s="7">
+        <v>229888</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>55</v>
+      </c>
+      <c r="D49" s="7">
+        <v>55688</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="H49" s="7">
+        <v>72</v>
+      </c>
+      <c r="I49" s="7">
+        <v>47909</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="M49" s="7">
+        <v>127</v>
+      </c>
+      <c r="N49" s="7">
+        <v>103597</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>30</v>
+      </c>
+      <c r="D50" s="7">
+        <v>37597</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="H50" s="7">
+        <v>42</v>
+      </c>
+      <c r="I50" s="7">
+        <v>31537</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="M50" s="7">
+        <v>72</v>
+      </c>
+      <c r="N50" s="7">
+        <v>69135</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>396</v>
       </c>
-      <c r="D45" s="7">
-        <v>496914</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>670123</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>511</v>
       </c>
-      <c r="I45" s="7">
-        <v>387974</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>355005</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>907</v>
       </c>
-      <c r="N45" s="7">
-        <v>884888</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>294</v>
+      <c r="N51" s="7">
+        <v>1025129</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
